--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -52,9 +52,6 @@
     <t>Detailed Reqs.</t>
   </si>
   <si>
-    <t>DB Development</t>
-  </si>
-  <si>
     <t>UI Client</t>
   </si>
   <si>
@@ -196,13 +193,7 @@
     <t xml:space="preserve">Standup meetings </t>
   </si>
   <si>
-    <t>Connect DB</t>
-  </si>
-  <si>
     <t>Insert/Update/Query</t>
-  </si>
-  <si>
-    <t>Function 1</t>
   </si>
   <si>
     <t>Lê Khánh</t>
@@ -248,22 +239,31 @@
     <t>UI Updates</t>
   </si>
   <si>
-    <t>Function 3</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
     <t>Team Leader, Developer</t>
   </si>
   <si>
-    <t>Function2</t>
-  </si>
-  <si>
     <t>Test WebService on Sever</t>
   </si>
   <si>
     <t>Inprogress</t>
+  </si>
+  <si>
+    <t>SQL Server Database</t>
+  </si>
+  <si>
+    <t>JDBC/Connect SQL DB</t>
+  </si>
+  <si>
+    <t>Sign-in function</t>
+  </si>
+  <si>
+    <t>Sign-up function</t>
+  </si>
+  <si>
+    <t>Search by Name, Address</t>
   </si>
 </sst>
 </file>
@@ -615,19 +615,19 @@
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DB Development</c:v>
+                  <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Function 1</c:v>
+                  <c:v>Sign-in function</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Function2</c:v>
+                  <c:v>Sign-up function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Function 3</c:v>
+                  <c:v>Search by Name, Address</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Connect DB</c:v>
+                  <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Test WebService on Sever</c:v>
@@ -894,19 +894,19 @@
                   <c:v>Detailed Reqs.</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>DB Development</c:v>
+                  <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Function 1</c:v>
+                  <c:v>Sign-in function</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Function2</c:v>
+                  <c:v>Sign-up function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Function 3</c:v>
+                  <c:v>Search by Name, Address</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Connect DB</c:v>
+                  <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Test WebService on Sever</c:v>
@@ -954,13 +954,13 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -1003,11 +1003,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="146595840"/>
-        <c:axId val="146597376"/>
+        <c:axId val="124477440"/>
+        <c:axId val="124478976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="146595840"/>
+        <c:axId val="124477440"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1017,7 +1017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146597376"/>
+        <c:crossAx val="124478976"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="146597376"/>
+        <c:axId val="124478976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1037,7 +1037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146595840"/>
+        <c:crossAx val="124477440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1423,38 +1423,39 @@
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1465,7 +1466,7 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="13">
         <v>42601</v>
@@ -1474,7 +1475,7 @@
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="13">
         <v>42287</v>
@@ -1483,10 +1484,10 @@
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="14">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1520,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7">
         <v>42601</v>
@@ -1533,7 +1534,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1541,7 +1542,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7">
         <v>42601</v>
@@ -1554,7 +1555,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
@@ -1562,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7">
         <v>42603</v>
@@ -1575,15 +1576,15 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7">
         <v>42623</v>
@@ -1595,79 +1596,79 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="F15" s="32" t="s">
-        <v>77</v>
+      <c r="F15" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
       <c r="A16" s="31" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>42629</v>
       </c>
       <c r="D16" s="7">
-        <v>42633</v>
+        <v>42638</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
       <c r="A17" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>42629</v>
       </c>
       <c r="D17" s="7">
-        <v>42633</v>
+        <v>42638</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F17" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7">
         <v>42629</v>
       </c>
       <c r="D18" s="7">
-        <v>42633</v>
+        <v>42638</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="C19" s="7">
         <v>42634</v>
@@ -1679,16 +1680,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>15</v>
+      <c r="F19" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
       <c r="A20" s="30" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7">
         <v>42636</v>
@@ -1700,16 +1701,16 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>15</v>
+      <c r="F20" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7">
         <v>42638</v>
@@ -1722,15 +1723,15 @@
         <v>1</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
       <c r="A22" s="30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C22" s="7">
         <v>42640</v>
@@ -1743,15 +1744,15 @@
         <v>1</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>42642</v>
@@ -1764,15 +1765,15 @@
         <v>1</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C24" s="7">
         <v>42644</v>
@@ -1785,15 +1786,15 @@
         <v>3</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C25" s="7">
         <v>42648</v>
@@ -1806,15 +1807,15 @@
         <v>2</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7">
         <v>42651</v>
@@ -1827,12 +1828,12 @@
         <v>1</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="21.95" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="27">
@@ -1878,49 +1879,49 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21">
       <c r="A1" s="22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
       <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78.75">
       <c r="A4" s="19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63">
       <c r="A5" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>64</v>
-      </c>
       <c r="C5" s="29" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">
@@ -1994,32 +1995,32 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21">
       <c r="A1" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="D3" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="E3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="F3" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="21" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="42.95" customHeight="1">
       <c r="A4" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="23">
         <v>0.5</v>
@@ -2148,76 +2149,76 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21">
       <c r="A1" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="18.75">
       <c r="A3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="E3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="F3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="G3" s="16" t="s">
         <v>43</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="42.95" customHeight="1">
       <c r="A4" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="E4" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="26" t="s">
         <v>50</v>
-      </c>
-      <c r="F4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="42.95" customHeight="1">
       <c r="A5" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">

--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
@@ -13,7 +18,7 @@
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1003,11 +1008,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="124477440"/>
-        <c:axId val="124478976"/>
+        <c:axId val="1156943792"/>
+        <c:axId val="1156955216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="124477440"/>
+        <c:axId val="1156943792"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1017,7 +1022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124478976"/>
+        <c:crossAx val="1156955216"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1025,7 +1030,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124478976"/>
+        <c:axId val="1156955216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1037,7 +1042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124477440"/>
+        <c:crossAx val="1156943792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1413,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1487,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="14">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1617,8 +1622,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="32" t="s">
-        <v>72</v>
+      <c r="F16" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
@@ -1638,8 +1643,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F17" s="32" t="s">
-        <v>72</v>
+      <c r="F17" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
@@ -1659,8 +1664,8 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F18" s="32" t="s">
-        <v>72</v>
+      <c r="F18" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
@@ -1680,8 +1685,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F19" s="32" t="s">
-        <v>72</v>
+      <c r="F19" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
@@ -1722,8 +1727,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>14</v>
+      <c r="F21" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">

--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -452,7 +452,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -536,6 +536,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -635,10 +638,10 @@
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UI Client</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Test WebService on Sever</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UI Client</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Insert/Update/Query</c:v>
@@ -914,10 +917,10 @@
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>UI Client</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Test WebService on Sever</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UI Client</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>Insert/Update/Query</c:v>
@@ -1008,11 +1011,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1156943792"/>
-        <c:axId val="1156955216"/>
+        <c:axId val="1326070304"/>
+        <c:axId val="1326080096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1156943792"/>
+        <c:axId val="1326070304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1022,7 +1025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1156955216"/>
+        <c:crossAx val="1326080096"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1030,7 +1033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1156955216"/>
+        <c:axId val="1326080096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1042,7 +1045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1156943792"/>
+        <c:crossAx val="1326070304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1418,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1690,8 +1693,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="30" t="s">
-        <v>71</v>
+      <c r="A20" s="33" t="s">
+        <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>58</v>
@@ -1706,13 +1709,13 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F20" s="32" t="s">
-        <v>72</v>
+      <c r="F20" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>57</v>
@@ -1727,8 +1730,8 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>20</v>
+      <c r="F21" s="32" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">

--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
   </bookViews>
@@ -18,7 +13,7 @@
     <sheet name="Communication Plan" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -689,7 +684,7 @@
                   <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42629</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42634</c:v>
@@ -968,13 +963,13 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>1</c:v>
@@ -1011,11 +1006,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1326070304"/>
-        <c:axId val="1326080096"/>
+        <c:axId val="133607424"/>
+        <c:axId val="133608960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1326070304"/>
+        <c:axId val="133607424"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1025,7 +1020,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326080096"/>
+        <c:crossAx val="133608960"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1028,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326080096"/>
+        <c:axId val="133608960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1045,7 +1040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326070304"/>
+        <c:crossAx val="133607424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1421,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1613,7 +1608,7 @@
         <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>42629</v>
@@ -1658,14 +1653,14 @@
         <v>58</v>
       </c>
       <c r="C18" s="7">
-        <v>42629</v>
+        <v>42633</v>
       </c>
       <c r="D18" s="7">
-        <v>42638</v>
+        <v>42639</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
@@ -1697,17 +1692,17 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="7">
         <v>42636</v>
       </c>
       <c r="D20" s="7">
-        <v>42637</v>
+        <v>42640</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
@@ -1718,7 +1713,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7">
         <v>42638</v>

--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrungTran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
   <si>
     <t>Tasks</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t xml:space="preserve">Standup meetings </t>
-  </si>
-  <si>
-    <t>Insert/Update/Query</t>
   </si>
   <si>
     <t>Lê Khánh</t>
@@ -265,10 +262,10 @@
     <t>Sign-in function</t>
   </si>
   <si>
-    <t>Sign-up function</t>
-  </si>
-  <si>
-    <t>Search by Name, Address</t>
+    <t>Add,edit,delete funtion</t>
+  </si>
+  <si>
+    <t>Search by Name funtion</t>
   </si>
 </sst>
 </file>
@@ -610,9 +607,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$A$12:$A$27</c:f>
+              <c:f>'Project Plan and Gantt'!$A$12:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Set kick-off meeting</c:v>
                 </c:pt>
@@ -626,13 +623,13 @@
                   <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Add,edit,delete funtion</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Sign-in function</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sign-up function</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>Search by Name, Address</c:v>
+                  <c:v>Search by Name funtion</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>JDBC/Connect SQL DB</c:v>
@@ -644,7 +641,7 @@
                   <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Insert/Update/Query</c:v>
+                  <c:v>UI Updates</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Testing</c:v>
@@ -653,12 +650,9 @@
                   <c:v>Dev. Complete</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>UI Updates</c:v>
+                  <c:v>Last Testing</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Last Testing</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Launch</c:v>
                 </c:pt>
               </c:strCache>
@@ -666,10 +660,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Plan and Gantt'!$C$12:$C$27</c:f>
+              <c:f>'Project Plan and Gantt'!$C$12:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>m/d;@</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>42601</c:v>
                 </c:pt>
@@ -689,7 +683,7 @@
                   <c:v>42629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42629</c:v>
+                  <c:v>42633</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>42634</c:v>
@@ -698,24 +692,21 @@
                   <c:v>42636</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42638</c:v>
+                  <c:v>42640</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42640</c:v>
+                  <c:v>42649</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42642</c:v>
+                  <c:v>42650</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42644</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42648</c:v>
+                  <c:v>42651</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42651</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>42653</c:v>
                 </c:pt>
               </c:numCache>
@@ -889,9 +880,9 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Project Plan and Gantt'!$A$12:$A$27</c:f>
+              <c:f>'Project Plan and Gantt'!$A$12:$A$26</c:f>
               <c:strCache>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>Set kick-off meeting</c:v>
                 </c:pt>
@@ -905,13 +896,13 @@
                   <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>Add,edit,delete funtion</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Sign-in function</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>Sign-up function</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>Search by Name, Address</c:v>
+                  <c:v>Search by Name funtion</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>JDBC/Connect SQL DB</c:v>
@@ -923,7 +914,7 @@
                   <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Insert/Update/Query</c:v>
+                  <c:v>UI Updates</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Testing</c:v>
@@ -932,12 +923,9 @@
                   <c:v>Dev. Complete</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>UI Updates</c:v>
+                  <c:v>Last Testing</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Last Testing</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>Launch</c:v>
                 </c:pt>
               </c:strCache>
@@ -945,10 +933,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Project Plan and Gantt'!$E$12:$E$27</c:f>
+              <c:f>'Project Plan and Gantt'!$E$12:$E$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -968,16 +956,16 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>1</c:v>
@@ -986,15 +974,12 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1011,11 +996,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1326070304"/>
-        <c:axId val="1326080096"/>
+        <c:axId val="1038293776"/>
+        <c:axId val="1038289424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1326070304"/>
+        <c:axId val="1038293776"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1025,7 +1010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326080096"/>
+        <c:crossAx val="1038289424"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1033,7 +1018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1326080096"/>
+        <c:axId val="1038289424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1045,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1326070304"/>
+        <c:crossAx val="1038293776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1074,7 +1059,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>698500</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1419,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1439,7 +1424,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -1448,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -1457,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -1495,7 +1480,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1529,7 +1514,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="7">
         <v>42601</v>
@@ -1550,7 +1535,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7">
         <v>42601</v>
@@ -1571,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="7">
         <v>42603</v>
@@ -1589,10 +1574,10 @@
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
       <c r="A15" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7">
         <v>42623</v>
@@ -1630,11 +1615,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>76</v>
+      <c r="A17" s="31" t="s">
+        <v>74</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7">
         <v>42629</v>
@@ -1652,20 +1637,20 @@
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
       <c r="A18" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
-        <v>42629</v>
+        <v>42633</v>
       </c>
       <c r="D18" s="7">
-        <v>42638</v>
+        <v>42639</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>20</v>
@@ -1673,10 +1658,10 @@
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
       <c r="A19" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="7">
         <v>42634</v>
@@ -1697,17 +1682,17 @@
         <v>9</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="7">
         <v>42636</v>
       </c>
       <c r="D20" s="7">
-        <v>42637</v>
+        <v>42640</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>20</v>
@@ -1715,44 +1700,44 @@
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
       <c r="A21" s="30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C21" s="7">
-        <v>42638</v>
+        <v>42640</v>
       </c>
       <c r="D21" s="7">
-        <v>42639</v>
+        <v>42649</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>69</v>
-      </c>
       <c r="C22" s="7">
-        <v>42640</v>
+        <v>42649</v>
       </c>
       <c r="D22" s="7">
-        <v>42641</v>
+        <v>42650</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ref="E22:E24" si="1">D22-C22</f>
         <v>1</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>14</v>
+      <c r="F22" s="32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
@@ -1760,13 +1745,13 @@
         <v>10</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="7">
-        <v>42642</v>
+        <v>42650</v>
       </c>
       <c r="D23" s="7">
-        <v>42643</v>
+        <v>42651</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
@@ -1781,17 +1766,17 @@
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="C24" s="7">
-        <v>42644</v>
+        <v>42651</v>
       </c>
       <c r="D24" s="7">
-        <v>42647</v>
+        <v>42652</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" s="5" t="s">
         <v>14</v>
@@ -1799,64 +1784,43 @@
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
       <c r="A25" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="C25" s="7">
-        <v>42648</v>
+        <v>42651</v>
       </c>
       <c r="D25" s="7">
-        <v>42650</v>
+        <v>42652</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="7">
-        <v>42651</v>
-      </c>
-      <c r="D26" s="7">
-        <v>42652</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="27">
+        <v>42653</v>
+      </c>
+      <c r="D26" s="27">
+        <v>42653</v>
+      </c>
+      <c r="E26" s="9">
         <f>D26-C26</f>
-        <v>1</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="27">
-        <v>42653</v>
-      </c>
-      <c r="D27" s="27">
-        <v>42653</v>
-      </c>
-      <c r="E27" s="9">
-        <f>D27-C27</f>
         <v>0</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6" ht="29.1" customHeight="1"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="29.1" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -1906,30 +1870,30 @@
     </row>
     <row r="4" spans="1:4" ht="78.75">
       <c r="A4" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="63">
       <c r="A5" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="29" t="s">
-        <v>62</v>
-      </c>
       <c r="D5" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">

--- a/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
+++ b/(NEW)Plan-TrungTamGiaSu-TranMinhTrung-LeKhanh.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TrungTran\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Project Plan and Gantt" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
   <si>
     <t>Tasks</t>
   </si>
@@ -57,22 +57,10 @@
     <t>Detailed Reqs.</t>
   </si>
   <si>
-    <t>UI Client</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Dev. Complete</t>
-  </si>
-  <si>
     <t>Launch</t>
   </si>
   <si>
     <t>Alex B.</t>
-  </si>
-  <si>
-    <t>Not started</t>
   </si>
   <si>
     <t>Project Name</t>
@@ -235,12 +223,6 @@
     <t>17/10/2016</t>
   </si>
   <si>
-    <t>Last Testing</t>
-  </si>
-  <si>
-    <t>UI Updates</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -250,22 +232,34 @@
     <t>Test WebService on Sever</t>
   </si>
   <si>
-    <t>Inprogress</t>
-  </si>
-  <si>
     <t>SQL Server Database</t>
   </si>
   <si>
     <t>JDBC/Connect SQL DB</t>
   </si>
   <si>
-    <t>Sign-in function</t>
-  </si>
-  <si>
-    <t>Add,edit,delete funtion</t>
-  </si>
-  <si>
-    <t>Search by Name funtion</t>
+    <t>Add, Edit, Delete Function</t>
+  </si>
+  <si>
+    <t>Sign-in Function</t>
+  </si>
+  <si>
+    <t>Search by Name Funtion</t>
+  </si>
+  <si>
+    <t>UI Client (thiết kế giao diện gồm giao diện Log-in và Admin)</t>
+  </si>
+  <si>
+    <t>UI Updates (chỉnh sửa, sắp xếp lại các button)</t>
+  </si>
+  <si>
+    <t>Testing (các chức năng add, edit, delete)</t>
+  </si>
+  <si>
+    <t>Dev. Complete (kiểm tra lỗi code và connect DB)</t>
+  </si>
+  <si>
+    <t>Last Testing (hoàn thành project và chạy ứng dụng)</t>
   </si>
 </sst>
 </file>
@@ -276,7 +270,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -324,24 +318,9 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.499984740745262"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -449,7 +428,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -459,9 +438,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -504,7 +480,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,9 +506,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -623,34 +596,34 @@
                   <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Add,edit,delete funtion</c:v>
+                  <c:v>Add, Edit, Delete Function</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sign-in function</c:v>
+                  <c:v>Sign-in Function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Search by Name funtion</c:v>
+                  <c:v>Search by Name Funtion</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>UI Client</c:v>
+                  <c:v>UI Client (thiết kế giao diện gồm giao diện Log-in và Admin)</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI Updates</c:v>
+                  <c:v>UI Updates (chỉnh sửa, sắp xếp lại các button)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Testing</c:v>
+                  <c:v>Testing (các chức năng add, edit, delete)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
+                  <c:v>Dev. Complete (kiểm tra lỗi code và connect DB)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Last Testing</c:v>
+                  <c:v>Last Testing (hoàn thành project và chạy ứng dụng)</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Launch</c:v>
@@ -896,34 +869,34 @@
                   <c:v>SQL Server Database</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Add,edit,delete funtion</c:v>
+                  <c:v>Add, Edit, Delete Function</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Sign-in function</c:v>
+                  <c:v>Sign-in Function</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Search by Name funtion</c:v>
+                  <c:v>Search by Name Funtion</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>JDBC/Connect SQL DB</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>UI Client</c:v>
+                  <c:v>UI Client (thiết kế giao diện gồm giao diện Log-in và Admin)</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Test WebService on Sever</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>UI Updates</c:v>
+                  <c:v>UI Updates (chỉnh sửa, sắp xếp lại các button)</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Testing</c:v>
+                  <c:v>Testing (các chức năng add, edit, delete)</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Dev. Complete</c:v>
+                  <c:v>Dev. Complete (kiểm tra lỗi code và connect DB)</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Last Testing</c:v>
+                  <c:v>Last Testing (hoàn thành project và chạy ứng dụng)</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>Launch</c:v>
@@ -996,11 +969,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="1038293776"/>
-        <c:axId val="1038289424"/>
+        <c:axId val="-1150671296"/>
+        <c:axId val="-1150681088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1038293776"/>
+        <c:axId val="-1150671296"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1010,7 +983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038289424"/>
+        <c:crossAx val="-1150681088"/>
         <c:crossesAt val="42544"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1018,7 +991,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1038289424"/>
+        <c:axId val="-1150681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42600"/>
@@ -1030,7 +1003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1038293776"/>
+        <c:crossAx val="-1150671296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1406,13 +1379,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="23.625" customWidth="1"/>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.125" customWidth="1"/>
     <col min="3" max="5" width="10.875" customWidth="1"/>
     <col min="6" max="6" width="13.625" customWidth="1"/>
@@ -1421,34 +1394,34 @@
   <sheetData>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>64</v>
+        <v>12</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>65</v>
+        <v>17</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>61</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1459,28 +1432,28 @@
     </row>
     <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="13">
+        <v>13</v>
+      </c>
+      <c r="B7" s="12">
         <v>42601</v>
       </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13">
+        <v>14</v>
+      </c>
+      <c r="B8" s="12">
         <v>42287</v>
       </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0.7</v>
+        <v>15</v>
+      </c>
+      <c r="B9" s="13">
+        <v>1</v>
       </c>
       <c r="C9" s="1"/>
     </row>
@@ -1490,22 +1463,22 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1514,12 +1487,12 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="C12" s="6">
         <v>42601</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>42602</v>
       </c>
       <c r="E12" s="3">
@@ -1527,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="21.95" customHeight="1">
@@ -1535,12 +1508,12 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="7">
+        <v>53</v>
+      </c>
+      <c r="C13" s="6">
         <v>42601</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>42602</v>
       </c>
       <c r="E13" s="3">
@@ -1548,20 +1521,20 @@
         <v>1</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="7">
+        <v>52</v>
+      </c>
+      <c r="C14" s="6">
         <v>42603</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="6">
         <v>42622</v>
       </c>
       <c r="E14" s="3">
@@ -1569,20 +1542,20 @@
         <v>19</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>72</v>
+      <c r="A15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="7">
+        <v>62</v>
+      </c>
+      <c r="C15" s="6">
         <v>42623</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="6">
         <v>42628</v>
       </c>
       <c r="E15" s="3">
@@ -1590,20 +1563,20 @@
         <v>5</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A16" s="31" t="s">
-        <v>75</v>
+      <c r="A16" s="30" t="s">
+        <v>67</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6">
         <v>42629</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="6">
         <v>42638</v>
       </c>
       <c r="E16" s="3">
@@ -1611,20 +1584,20 @@
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A17" s="31" t="s">
-        <v>74</v>
+      <c r="A17" s="30" t="s">
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="7">
+        <v>52</v>
+      </c>
+      <c r="C17" s="6">
         <v>42629</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>42638</v>
       </c>
       <c r="E17" s="3">
@@ -1632,20 +1605,20 @@
         <v>9</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>76</v>
+      <c r="A18" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="7">
+        <v>53</v>
+      </c>
+      <c r="C18" s="6">
         <v>42633</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <v>42639</v>
       </c>
       <c r="E18" s="3">
@@ -1653,20 +1626,20 @@
         <v>6</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>73</v>
+      <c r="A19" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7">
+        <v>52</v>
+      </c>
+      <c r="C19" s="6">
         <v>42634</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="6">
         <v>42635</v>
       </c>
       <c r="E19" s="3">
@@ -1674,20 +1647,20 @@
         <v>1</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A20" s="33" t="s">
-        <v>9</v>
+      <c r="A20" s="31" t="s">
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="7">
+        <v>52</v>
+      </c>
+      <c r="C20" s="6">
         <v>42636</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="6">
         <v>42640</v>
       </c>
       <c r="E20" s="3">
@@ -1695,130 +1668,130 @@
         <v>4</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A21" s="30" t="s">
-        <v>70</v>
+      <c r="A21" s="29" t="s">
+        <v>64</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="7">
+        <v>53</v>
+      </c>
+      <c r="C21" s="6">
         <v>42640</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>42649</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F21" s="32" t="s">
+      <c r="F21" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="21.95" customHeight="1">
+      <c r="A22" s="5" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A22" s="6" t="s">
-        <v>67</v>
-      </c>
       <c r="B22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="7">
+        <v>52</v>
+      </c>
+      <c r="C22" s="6">
         <v>42649</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="6">
         <v>42650</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" ref="E22:E24" si="1">D22-C22</f>
         <v>1</v>
       </c>
-      <c r="F22" s="32" t="s">
-        <v>71</v>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A23" s="6" t="s">
-        <v>10</v>
+      <c r="A23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="7">
+        <v>53</v>
+      </c>
+      <c r="C23" s="6">
         <v>42650</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="6">
         <v>42651</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>14</v>
+      <c r="F23" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A24" s="6" t="s">
-        <v>11</v>
+      <c r="A24" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="C24" s="6">
         <v>42651</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="6">
         <v>42652</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>14</v>
+      <c r="F24" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A25" s="6" t="s">
-        <v>66</v>
+      <c r="A25" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="7">
+        <v>62</v>
+      </c>
+      <c r="C25" s="6">
         <v>42651</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="6">
         <v>42652</v>
       </c>
       <c r="E25" s="3">
         <f>D25-C25</f>
         <v>1</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>14</v>
+      <c r="F25" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.95" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="27">
+      <c r="A26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="26">
         <v>42653</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="26">
         <v>42653</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <f>D26-C26</f>
         <v>0</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:6" ht="29.1" customHeight="1"/>
   </sheetData>
@@ -1850,87 +1823,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
-      <c r="A1" s="22" t="s">
-        <v>25</v>
+      <c r="A1" s="21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>24</v>
+      <c r="D3" s="17" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="78.75">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="63">
+      <c r="A5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="63">
-      <c r="A5" s="19" t="s">
+      <c r="C5" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>59</v>
+      <c r="D5" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="51.75" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="19"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="18"/>
     </row>
     <row r="7" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
     </row>
     <row r="8" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
     </row>
     <row r="9" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
     </row>
     <row r="10" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="42.95" customHeight="1">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1966,129 +1939,129 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="21">
-      <c r="A1" s="22" t="s">
-        <v>33</v>
+      <c r="A1" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
-      <c r="A3" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="42.95" customHeight="1">
+      <c r="A4" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A4" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <v>0.5</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="24">
         <v>2800</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <v>3500</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="24">
         <v>3600</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="22">
         <v>0.15</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" ht="42.95" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2120,168 +2093,168 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="18.75">
+      <c r="A3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18.75">
-      <c r="A3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="16" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="B4" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="42.95" customHeight="1">
+      <c r="A5" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A4" s="26" t="s">
+      <c r="B5" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="26" t="s">
+      <c r="E5" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="F5" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="26" t="s">
+      <c r="G5" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A5" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="26" t="s">
-        <v>54</v>
-      </c>
-    </row>
     <row r="6" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="1:7" ht="42.95" customHeight="1">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
